--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2091.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2091.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.189205034704201</v>
+        <v>3.240107297897339</v>
       </c>
       <c r="B1">
-        <v>3.354427876770781</v>
+        <v>2.890908241271973</v>
       </c>
       <c r="C1">
-        <v>2.985127419463452</v>
+        <v>2.542561054229736</v>
       </c>
       <c r="D1">
-        <v>3.283540117187559</v>
+        <v>2.765085458755493</v>
       </c>
       <c r="E1">
-        <v>2.220999110824619</v>
+        <v>3.055150747299194</v>
       </c>
     </row>
   </sheetData>
